--- a/Data/references.xlsx
+++ b/Data/references.xlsx
@@ -87,10 +87,10 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve"> Y</t>
-  </si>
-  <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,10 +452,10 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
